--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\DTU\02257 Applied Functional Programming\02257-DrawingTrees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F575E-806D-45E7-B0FC-0D8875385760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79733451-5512-4AAF-AE16-887693AB4225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{FB3E4BEA-69B2-41E7-B74A-86D9980E85AD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{FB3E4BEA-69B2-41E7-B74A-86D9980E85AD}"/>
   </bookViews>
   <sheets>
     <sheet name="BinaryTrees" sheetId="1" r:id="rId1"/>
     <sheet name="ParallelPaths" sheetId="2" r:id="rId2"/>
+    <sheet name="Rendering" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Binary Trees</t>
   </si>
@@ -51,10 +52,19 @@
     <t>Time [ns]</t>
   </si>
   <si>
-    <t>Log time</t>
+    <t>Tree: 4 parallel paths</t>
   </si>
   <si>
-    <t>Tree: 4 parallel paths</t>
+    <t>Rendering parallel paths of height n</t>
+  </si>
+  <si>
+    <t>Rendering of binary trees of height n</t>
+  </si>
+  <si>
+    <t>Time[ns]</t>
+  </si>
+  <si>
+    <t>#Nodes</t>
   </si>
 </sst>
 </file>
@@ -231,43 +241,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,40 +391,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>1023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2048</c:v>
+                  <c:v>4095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4096</c:v>
+                  <c:v>8191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,627 +1150,610 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ParallelPaths!$A$2:$A$202</c:f>
+              <c:f>ParallelPaths!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="200">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1768,611 +1761,608 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ParallelPaths!$B$2:$B$202</c:f>
+              <c:f>ParallelPaths!$B$2:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>6658</c:v>
+                  <c:v>5279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5279</c:v>
+                  <c:v>12206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12206</c:v>
+                  <c:v>15932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15932</c:v>
+                  <c:v>23644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23644</c:v>
+                  <c:v>19176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19176</c:v>
+                  <c:v>20956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20956</c:v>
+                  <c:v>27340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27340</c:v>
+                  <c:v>38327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38327</c:v>
+                  <c:v>38043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38043</c:v>
+                  <c:v>42154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42154</c:v>
+                  <c:v>53496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53496</c:v>
+                  <c:v>59446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59446</c:v>
+                  <c:v>62177</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62177</c:v>
+                  <c:v>85490</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85490</c:v>
+                  <c:v>83938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83938</c:v>
+                  <c:v>84709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84709</c:v>
+                  <c:v>101842</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101842</c:v>
+                  <c:v>99551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99551</c:v>
+                  <c:v>116559</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116559</c:v>
+                  <c:v>110714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110714</c:v>
+                  <c:v>105444</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105444</c:v>
+                  <c:v>111733</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>111733</c:v>
+                  <c:v>113972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113972</c:v>
+                  <c:v>120828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120828</c:v>
+                  <c:v>130397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130397</c:v>
+                  <c:v>140838</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140838</c:v>
+                  <c:v>149459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>149459</c:v>
+                  <c:v>208166</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208166</c:v>
+                  <c:v>230058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>230058</c:v>
+                  <c:v>243052</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>243052</c:v>
+                  <c:v>191924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191924</c:v>
+                  <c:v>194131</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>194131</c:v>
+                  <c:v>191310</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>191310</c:v>
+                  <c:v>204691</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>204691</c:v>
+                  <c:v>247873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>247873</c:v>
+                  <c:v>226593</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>226593</c:v>
+                  <c:v>229356</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>229356</c:v>
+                  <c:v>246235</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>246235</c:v>
+                  <c:v>275423</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>275423</c:v>
+                  <c:v>287041</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>287041</c:v>
+                  <c:v>289935</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>289935</c:v>
+                  <c:v>302517</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>302517</c:v>
+                  <c:v>291400</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>291400</c:v>
+                  <c:v>309643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>309643</c:v>
+                  <c:v>315461</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>315461</c:v>
+                  <c:v>362349</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>362349</c:v>
+                  <c:v>432286</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>432286</c:v>
+                  <c:v>407492</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>407492</c:v>
+                  <c:v>396967</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>396967</c:v>
+                  <c:v>400913</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>400913</c:v>
+                  <c:v>439094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>439094</c:v>
+                  <c:v>409833</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>409833</c:v>
+                  <c:v>411290</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>411290</c:v>
+                  <c:v>490711</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>490711</c:v>
+                  <c:v>444814</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>444814</c:v>
+                  <c:v>422217</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>422217</c:v>
+                  <c:v>421963</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>421963</c:v>
+                  <c:v>441774</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>441774</c:v>
+                  <c:v>460039</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>460039</c:v>
+                  <c:v>474282</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>474282</c:v>
+                  <c:v>503857</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>503857</c:v>
+                  <c:v>491348</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>491348</c:v>
+                  <c:v>480294</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>480294</c:v>
+                  <c:v>506404</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>506404</c:v>
+                  <c:v>520057</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>520057</c:v>
+                  <c:v>533498</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>533498</c:v>
+                  <c:v>541817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>541817</c:v>
+                  <c:v>590455</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>590455</c:v>
+                  <c:v>621727</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>621727</c:v>
+                  <c:v>687088</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>687088</c:v>
+                  <c:v>730763</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>730763</c:v>
+                  <c:v>741359</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>741359</c:v>
+                  <c:v>707888</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>707888</c:v>
+                  <c:v>700143</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>700143</c:v>
+                  <c:v>707328</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>707328</c:v>
+                  <c:v>699142</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>699142</c:v>
+                  <c:v>705943</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>705943</c:v>
+                  <c:v>713350</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>713350</c:v>
+                  <c:v>749436</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>749436</c:v>
+                  <c:v>745979</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>745979</c:v>
+                  <c:v>757191</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>757191</c:v>
+                  <c:v>784966</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>784966</c:v>
+                  <c:v>794895</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>794895</c:v>
+                  <c:v>800557</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>800557</c:v>
+                  <c:v>819388</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>819388</c:v>
+                  <c:v>852871</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>852871</c:v>
+                  <c:v>856676</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>856676</c:v>
+                  <c:v>876871</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>876871</c:v>
+                  <c:v>901778</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>901778</c:v>
+                  <c:v>919512</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>919512</c:v>
+                  <c:v>923788</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>923788</c:v>
+                  <c:v>938756</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>938756</c:v>
+                  <c:v>954770</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>954770</c:v>
+                  <c:v>965630</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>965630</c:v>
+                  <c:v>973009</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>973009</c:v>
+                  <c:v>1011868</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1011868</c:v>
+                  <c:v>985465</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>985465</c:v>
+                  <c:v>1043579</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1043579</c:v>
+                  <c:v>1085493</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1085493</c:v>
+                  <c:v>1101691</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1101691</c:v>
+                  <c:v>1102039</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1102039</c:v>
+                  <c:v>1117588</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1117588</c:v>
+                  <c:v>1118713</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1118713</c:v>
+                  <c:v>1154119</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1154119</c:v>
+                  <c:v>1192979</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1192979</c:v>
+                  <c:v>1179439</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1179439</c:v>
+                  <c:v>1206453</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1206453</c:v>
+                  <c:v>1322172</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1322172</c:v>
+                  <c:v>1304883</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1304883</c:v>
+                  <c:v>1357691</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1357691</c:v>
+                  <c:v>1420342</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1420342</c:v>
+                  <c:v>1346878</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1346878</c:v>
+                  <c:v>1487952</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1487952</c:v>
+                  <c:v>1550566</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1550566</c:v>
+                  <c:v>1549766</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1549766</c:v>
+                  <c:v>1447446</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1447446</c:v>
+                  <c:v>1534842</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1534842</c:v>
+                  <c:v>1509663</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1509663</c:v>
+                  <c:v>1549229</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1549229</c:v>
+                  <c:v>1426846</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1426846</c:v>
+                  <c:v>1554526</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1554526</c:v>
+                  <c:v>1623367</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1623367</c:v>
+                  <c:v>1619002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1619002</c:v>
+                  <c:v>1658800</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1658800</c:v>
+                  <c:v>1683592</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1683592</c:v>
+                  <c:v>1692589</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1692589</c:v>
+                  <c:v>1612958</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1612958</c:v>
+                  <c:v>1708151</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1708151</c:v>
+                  <c:v>1661230</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1661230</c:v>
+                  <c:v>1647458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1647458</c:v>
+                  <c:v>1675816</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1675816</c:v>
+                  <c:v>1738799</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1738799</c:v>
+                  <c:v>1731233</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1731233</c:v>
+                  <c:v>1762083</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1762083</c:v>
+                  <c:v>1788836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1788836</c:v>
+                  <c:v>1811731</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1811731</c:v>
+                  <c:v>1798960</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1798960</c:v>
+                  <c:v>1878538</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1878538</c:v>
+                  <c:v>1861964</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1861964</c:v>
+                  <c:v>1911183</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1911183</c:v>
+                  <c:v>1991179</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1991179</c:v>
+                  <c:v>1977457</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1977457</c:v>
+                  <c:v>1947923</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1947923</c:v>
+                  <c:v>2098004</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2098004</c:v>
+                  <c:v>2202506</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2202506</c:v>
+                  <c:v>2133821</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2133821</c:v>
+                  <c:v>2127096</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2127096</c:v>
+                  <c:v>2117213</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2117213</c:v>
+                  <c:v>2119649</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2119649</c:v>
+                  <c:v>2139884</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2139884</c:v>
+                  <c:v>2174885</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2174885</c:v>
+                  <c:v>2263107</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2263107</c:v>
+                  <c:v>2249586</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2249586</c:v>
+                  <c:v>2230155</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2230155</c:v>
+                  <c:v>2264367</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2264367</c:v>
+                  <c:v>2309672</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2309672</c:v>
+                  <c:v>2333405</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2333405</c:v>
+                  <c:v>2348592</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2348592</c:v>
+                  <c:v>2393151</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2393151</c:v>
+                  <c:v>2458888</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2458888</c:v>
+                  <c:v>2637487</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2637487</c:v>
+                  <c:v>2661163</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2661163</c:v>
+                  <c:v>2524359</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2524359</c:v>
+                  <c:v>2555998</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2555998</c:v>
+                  <c:v>2543520</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2543520</c:v>
+                  <c:v>2555693</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2555693</c:v>
+                  <c:v>2626281</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2626281</c:v>
+                  <c:v>2647425</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2647425</c:v>
+                  <c:v>2682635</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2682635</c:v>
+                  <c:v>2671429</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2671429</c:v>
+                  <c:v>2708073</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2708073</c:v>
+                  <c:v>2753976</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2753976</c:v>
+                  <c:v>2797806</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2797806</c:v>
+                  <c:v>2800102</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2800102</c:v>
+                  <c:v>2769606</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2769606</c:v>
+                  <c:v>2932282</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2932282</c:v>
+                  <c:v>2984463</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2984463</c:v>
+                  <c:v>3031677</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3031677</c:v>
+                  <c:v>3063163</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3063163</c:v>
+                  <c:v>3063312</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3063312</c:v>
+                  <c:v>3167981</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3167981</c:v>
+                  <c:v>3219091</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3219091</c:v>
+                  <c:v>3204831</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3204831</c:v>
+                  <c:v>3229142</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3229142</c:v>
+                  <c:v>3286758</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3286758</c:v>
+                  <c:v>3317606</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3317606</c:v>
+                  <c:v>3329311</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3329311</c:v>
+                  <c:v>3375527</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3375527</c:v>
+                  <c:v>3378610</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3378610</c:v>
+                  <c:v>3398296</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3398296</c:v>
+                  <c:v>3455626</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3455626</c:v>
+                  <c:v>3476975</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3476975</c:v>
+                  <c:v>3529605</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3529605</c:v>
+                  <c:v>3597675</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3597675</c:v>
+                  <c:v>3664704</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3664704</c:v>
+                  <c:v>3671936</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3671936</c:v>
+                  <c:v>3735758</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3735758</c:v>
+                  <c:v>3703615</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3703615</c:v>
+                  <c:v>3814963</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3814963</c:v>
-                </c:pt>
-                <c:pt idx="200">
                   <c:v>3816094</c:v>
                 </c:pt>
               </c:numCache>
@@ -2716,6 +2706,1227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of render on parallel paths</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rendering!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rendering!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>376823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>845225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1278773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1330514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1194422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1434969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1686528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2198950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2044273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2165159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2647904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2911432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2870085</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3020651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3213936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3704918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3895525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4127894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4280464</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4775091</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5065409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5268506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5570151</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5957670</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6058821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6281424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6523349</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6657430</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6961308</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6855753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7402665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7395614</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7443413</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7639065</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7706450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8058102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8263305</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8598936</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8462135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DE2-4788-9923-AAFD2D6D68E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1747004976"/>
+        <c:axId val="1747005456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1747004976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747005456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747005456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time [ns]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747004976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundredThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of render on binary trees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rendering!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time[ns]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Rendering!$O$2:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Rendering!$P$2:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>586528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1311577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2268467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3552876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7272144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15360329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31250506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65115843</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128795784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265078960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-126E-4E83-A4B5-9D32357AC08A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1926452416"/>
+        <c:axId val="1926460096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1926452416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926460096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1926460096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time[ns]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926452416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundredThousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2796,6 +4007,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3828,17 +5119,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>272378</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>310478</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171931</xdr:rowOff>
@@ -3902,6 +6225,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645318</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42803B89-8ADC-5782-5834-56769B5AAA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183355</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>221455</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FAD167-C460-B03C-9928-AFCB473BA873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4207,20 +6607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB289CE1-2480-4CB9-A6BB-2BDE7A9F25AA}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4230,216 +6630,161 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f>POWER(2,A3)</f>
+        <f>POWER(2,A3)-1</f>
         <v>1</v>
       </c>
       <c r="C3">
         <v>1969</v>
       </c>
-      <c r="D3">
-        <f>LOG(C3)</f>
-        <v>3.2942457161381182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B15" si="0">POWER(2,A4)</f>
-        <v>2</v>
+        <f t="shared" ref="B4:B14" si="0">POWER(2,A4)-1</f>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2739</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D15" si="1">LOG(C4)</f>
-        <v>3.4375920322539613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>10463</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>4.0196562253193484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>26555</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>4.4241463057551558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>50877</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>4.7065214948994436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>54905</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>4.7396118958805555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>129660</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>5.1128060172668848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="C10">
         <v>237497</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>5.375658128101203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>511</v>
       </c>
       <c r="C11">
         <v>513980</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>5.7109462200485277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>1023</v>
       </c>
       <c r="C12">
         <v>866918</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>5.9379780203923547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>2047</v>
       </c>
       <c r="C13">
         <v>1525715</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>6.1834734159996199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>4095</v>
       </c>
       <c r="C14">
         <v>3089800</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>6.489930368839893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <f>POWER(2,A15)-1</f>
+        <v>8191</v>
       </c>
       <c r="C15">
         <v>6262468</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>6.7967455197201838</v>
       </c>
     </row>
   </sheetData>
@@ -4450,10 +6795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDE5EC8-E288-4808-8C59-0171A20FEAEB}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4466,1615 +6811,2249 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6658</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5279</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>12206</v>
+        <v>15932</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>15932</v>
+        <v>23644</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>23644</v>
+        <v>19176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>19176</v>
+        <v>20956</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>20956</v>
+        <v>27340</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>27340</v>
+        <v>38327</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>38327</v>
+        <v>38043</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>38043</v>
+        <v>42154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>42154</v>
+        <v>53496</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>53496</v>
+        <v>59446</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>59446</v>
+        <v>62177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>62177</v>
+        <v>85490</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>85490</v>
+        <v>83938</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>83938</v>
+        <v>84709</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>84709</v>
+        <v>101842</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>101842</v>
+        <v>99551</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>99551</v>
+        <v>116559</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>116559</v>
+        <v>110714</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>110714</v>
+        <v>105444</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>105444</v>
+        <v>111733</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>111733</v>
+        <v>113972</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>113972</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>120828</v>
+        <v>130397</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>130397</v>
+        <v>140838</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>140838</v>
+        <v>149459</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>149459</v>
+        <v>208166</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>208166</v>
+        <v>230058</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>230058</v>
+        <v>243052</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>243052</v>
+        <v>191924</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>191924</v>
+        <v>194131</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>194131</v>
+        <v>191310</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>191310</v>
+        <v>204691</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>204691</v>
+        <v>247873</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>247873</v>
+        <v>226593</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>226593</v>
+        <v>229356</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>229356</v>
+        <v>246235</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>246235</v>
+        <v>275423</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>275423</v>
+        <v>287041</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>287041</v>
+        <v>289935</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>289935</v>
+        <v>302517</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>302517</v>
+        <v>291400</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>291400</v>
+        <v>309643</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>309643</v>
+        <v>315461</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>315461</v>
+        <v>362349</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>362349</v>
+        <v>432286</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>432286</v>
+        <v>407492</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>407492</v>
+        <v>396967</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>396967</v>
+        <v>400913</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>400913</v>
+        <v>439094</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>439094</v>
+        <v>409833</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>409833</v>
+        <v>411290</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>411290</v>
+        <v>490711</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>490711</v>
+        <v>444814</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>444814</v>
+        <v>422217</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>422217</v>
+        <v>421963</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>421963</v>
+        <v>441774</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>441774</v>
+        <v>460039</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>460039</v>
+        <v>474282</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>474282</v>
+        <v>503857</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>503857</v>
+        <v>491348</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>491348</v>
+        <v>480294</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>480294</v>
+        <v>506404</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>506404</v>
+        <v>520057</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>520057</v>
+        <v>533498</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>533498</v>
+        <v>541817</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>541817</v>
+        <v>590455</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>590455</v>
+        <v>621727</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>621727</v>
+        <v>687088</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>687088</v>
+        <v>730763</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>730763</v>
+        <v>741359</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>741359</v>
+        <v>707888</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>707888</v>
+        <v>700143</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>700143</v>
+        <v>707328</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>707328</v>
+        <v>699142</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>699142</v>
+        <v>705943</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>705943</v>
+        <v>713350</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>713350</v>
+        <v>749436</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>749436</v>
+        <v>745979</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>745979</v>
+        <v>757191</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>757191</v>
+        <v>784966</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>784966</v>
+        <v>794895</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>794895</v>
+        <v>800557</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>800557</v>
+        <v>819388</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>819388</v>
+        <v>852871</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>852871</v>
+        <v>856676</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>856676</v>
+        <v>876871</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>876871</v>
+        <v>901778</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>901778</v>
+        <v>919512</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>919512</v>
+        <v>923788</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>923788</v>
+        <v>938756</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>938756</v>
+        <v>954770</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>954770</v>
+        <v>965630</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>965630</v>
+        <v>973009</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>973009</v>
+        <v>1011868</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>1011868</v>
+        <v>985465</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>985465</v>
+        <v>1043579</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>1043579</v>
+        <v>1085493</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>1085493</v>
+        <v>1101691</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>1101691</v>
+        <v>1102039</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>1102039</v>
+        <v>1117588</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>1117588</v>
+        <v>1118713</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>1118713</v>
+        <v>1154119</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>1154119</v>
+        <v>1192979</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>1192979</v>
+        <v>1179439</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>1179439</v>
+        <v>1206453</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>1206453</v>
+        <v>1322172</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>1322172</v>
+        <v>1304883</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>1304883</v>
+        <v>1357691</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>1357691</v>
+        <v>1420342</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>1420342</v>
+        <v>1346878</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>1346878</v>
+        <v>1487952</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>1487952</v>
+        <v>1550566</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>1550566</v>
+        <v>1549766</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>1549766</v>
+        <v>1447446</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>1447446</v>
+        <v>1534842</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1534842</v>
+        <v>1509663</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>1509663</v>
+        <v>1549229</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>1549229</v>
+        <v>1426846</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>1426846</v>
+        <v>1554526</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>1554526</v>
+        <v>1623367</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>1623367</v>
+        <v>1619002</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>1619002</v>
+        <v>1658800</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>1658800</v>
+        <v>1683592</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>1683592</v>
+        <v>1692589</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>1692589</v>
+        <v>1612958</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>1612958</v>
+        <v>1708151</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>1708151</v>
+        <v>1661230</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>1661230</v>
+        <v>1647458</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>1647458</v>
+        <v>1675816</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>1675816</v>
+        <v>1738799</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>1738799</v>
+        <v>1731233</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>1731233</v>
+        <v>1762083</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>1762083</v>
+        <v>1788836</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>1788836</v>
+        <v>1811731</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>1811731</v>
+        <v>1798960</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>1798960</v>
+        <v>1878538</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>1878538</v>
+        <v>1861964</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>1861964</v>
+        <v>1911183</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>1911183</v>
+        <v>1991179</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>1991179</v>
+        <v>1977457</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>1977457</v>
+        <v>1947923</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>1947923</v>
+        <v>2098004</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>2098004</v>
+        <v>2202506</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>2202506</v>
+        <v>2133821</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>2133821</v>
+        <v>2127096</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>2127096</v>
+        <v>2117213</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>2117213</v>
+        <v>2119649</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>2119649</v>
+        <v>2139884</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>2139884</v>
+        <v>2174885</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>2174885</v>
+        <v>2263107</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>2263107</v>
+        <v>2249586</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>2249586</v>
+        <v>2230155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>2230155</v>
+        <v>2264367</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>2264367</v>
+        <v>2309672</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>2309672</v>
+        <v>2333405</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>2333405</v>
+        <v>2348592</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>2348592</v>
+        <v>2393151</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>2393151</v>
+        <v>2458888</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>2458888</v>
+        <v>2637487</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>2637487</v>
+        <v>2661163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>2661163</v>
+        <v>2524359</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>2524359</v>
+        <v>2555998</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>2555998</v>
+        <v>2543520</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>2543520</v>
+        <v>2555693</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>2555693</v>
+        <v>2626281</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>2626281</v>
+        <v>2647425</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>2647425</v>
+        <v>2682635</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>2682635</v>
+        <v>2671429</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>2671429</v>
+        <v>2708073</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>2708073</v>
+        <v>2753976</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>2753976</v>
+        <v>2797806</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>2797806</v>
+        <v>2800102</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>2800102</v>
+        <v>2769606</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>2769606</v>
+        <v>2932282</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>2932282</v>
+        <v>2984463</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>2984463</v>
+        <v>3031677</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>3031677</v>
+        <v>3063163</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>3063163</v>
+        <v>3063312</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>3063312</v>
+        <v>3167981</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>3167981</v>
+        <v>3219091</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>3219091</v>
+        <v>3204831</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>3204831</v>
+        <v>3229142</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>3229142</v>
+        <v>3286758</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>3286758</v>
+        <v>3317606</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>3317606</v>
+        <v>3329311</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>3329311</v>
+        <v>3375527</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>3375527</v>
+        <v>3378610</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>3378610</v>
+        <v>3398296</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>3398296</v>
+        <v>3455626</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>3455626</v>
+        <v>3476975</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>3476975</v>
+        <v>3529605</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>3529605</v>
+        <v>3597675</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>3597675</v>
+        <v>3664704</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>3664704</v>
+        <v>3671936</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>3671936</v>
+        <v>3735758</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>3735758</v>
+        <v>3703615</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>3703615</v>
+        <v>3814963</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>3814963</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202">
         <v>3816094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5E3AD-1BC0-4F45-BB1B-2C08B9EAD0A9}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>1+4*(A2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>376823</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>POWER(2,N2)-1</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>8007</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B41" si="0">1+4*(A3-1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>845225</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="1">POWER(2,N3)-1</f>
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>190936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1278773</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>586528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1330514</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>1311577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1194422</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="P6">
+        <v>2268467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1434969</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="P7">
+        <v>3552876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1686528</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="P8">
+        <v>7272144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2198950</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="P9">
+        <v>15360329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2044273</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="P10">
+        <v>31250506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>2165159</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="P11">
+        <v>65115843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>2647904</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="P12">
+        <v>128795784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>2911432</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>4095</v>
+      </c>
+      <c r="P13">
+        <v>265078960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>2870085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>3020651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>3213936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>3704918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>3895525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>4163912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>4127894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C21">
+        <v>4280464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>4775091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>5065409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>5268506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>5570151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>5957670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>6058821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C28">
+        <v>6281424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="C29">
+        <v>6523349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>6657430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C31">
+        <v>6961308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>6855753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C33">
+        <v>7402665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="C34">
+        <v>7395614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>7443413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C36">
+        <v>7639065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="C37">
+        <v>7706450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C38">
+        <v>8058102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="C39">
+        <v>8263305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="C40">
+        <v>8598936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="C41">
+        <v>8462135</v>
       </c>
     </row>
   </sheetData>
